--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,45 +435,45 @@
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>300/DR1</v>
+        <v>233/DR1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ACHENGLI LAILA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>J207703</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>00101211115087750001201090</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>Ait souss</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP Centre Sud</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">901/FES </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
         <v>5000</v>
@@ -483,81 +483,11 @@
       </c>
       <c r="K3">
         <v>4500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>JALAL MED</v>
-      </c>
-      <c r="B4" t="str">
-        <v>J2545456</v>
-      </c>
-      <c r="C4" t="str">
-        <v>265463456416547645654645</v>
-      </c>
-      <c r="D4" t="str">
-        <v>AGG</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G4" t="str">
-        <v>800/SUP 1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>8000</v>
-      </c>
-      <c r="J4">
-        <v>800</v>
-      </c>
-      <c r="K4">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5">
-        <v>15000</v>
-      </c>
-      <c r="J5">
-        <v>1300</v>
-      </c>
-      <c r="K5">
-        <v>13700</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,252 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">VAVA FAFA </v>
+        <v>AGENCE KHATABI</v>
       </c>
       <c r="B2" t="str">
-        <v>H354534</v>
+        <v>354646</v>
       </c>
       <c r="C2" t="str">
-        <v>656546476874546874254687</v>
+        <v>54544646446464646464444464</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>AGENCE 1</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>BMCI</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v>233/DR1</v>
+        <v>908/LF/DIRECTION REGIONALE SUD</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K2">
-        <v>4500</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BJ36877</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>AOURIR</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BMCE</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>389/AOURIR</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ACHENGLI LAILA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>J207703</v>
+      </c>
+      <c r="C4" t="str">
+        <v>00101211115087750001201090</v>
+      </c>
+      <c r="D4" t="str">
+        <v>AIT SOUSS</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v>908/DIRECTION REGIONALE SUD</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>20000</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ACHENGLI LAILA</v>
+      </c>
+      <c r="B5" t="str">
+        <v>J207703</v>
+      </c>
+      <c r="C5" t="str">
+        <v>00101211115087750001201090</v>
+      </c>
+      <c r="D5" t="str">
+        <v>AIT SOUSS</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Siège</v>
+      </c>
+      <c r="G5" t="str">
+        <v>900/PATIO</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
         <v>4500</v>
+      </c>
+      <c r="J5">
+        <v>450</v>
+      </c>
+      <c r="K5">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>AGENCE KHATABI</v>
+      </c>
+      <c r="B6" t="str">
+        <v>354646</v>
+      </c>
+      <c r="C6" t="str">
+        <v>54544646446464646464444464</v>
+      </c>
+      <c r="D6" t="str">
+        <v>AGENCE 1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>BMCI</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Supervision</v>
+      </c>
+      <c r="G6" t="str">
+        <v>001/SUP SUD</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>2400</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>NACER YASSINE</v>
+      </c>
+      <c r="B7" t="str">
+        <v>L234567</v>
+      </c>
+      <c r="C7" t="str">
+        <v>78017098772736274634834384</v>
+      </c>
+      <c r="D7" t="str">
+        <v>TOUHAMI</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ATTIJARI WAFA BANK</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G7" t="str">
+        <v>805/KOUTOUBIA</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>12000</v>
+      </c>
+      <c r="J7">
+        <v>1800</v>
+      </c>
+      <c r="K7">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I8">
+        <v>61900</v>
+      </c>
+      <c r="J8">
+        <v>7350</v>
+      </c>
+      <c r="K8">
+        <v>54550</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,252 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AGENCE KHATABI</v>
+        <v>NACER YASSINE</v>
       </c>
       <c r="B2" t="str">
-        <v>354646</v>
+        <v>L234567</v>
       </c>
       <c r="C2" t="str">
-        <v>54544646446464646464444464</v>
+        <v>78017098772736274634834384</v>
       </c>
       <c r="D2" t="str">
-        <v>AGENCE 1</v>
+        <v>TOUHAMI</v>
       </c>
       <c r="E2" t="str">
-        <v>BMCI</v>
+        <v>ATTIJARI WAFA BANK</v>
       </c>
       <c r="F2" t="str">
-        <v>Logement de fonction</v>
+        <v>Point de vente</v>
       </c>
       <c r="G2" t="str">
-        <v>908/LF/DIRECTION REGIONALE SUD</v>
+        <v>389/AOURIR</v>
       </c>
       <c r="H2" t="str">
-        <v>mensuelle</v>
+        <v>trimestrielle</v>
       </c>
       <c r="I2">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="J2">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K2">
-        <v>14600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>CHARIJI ABDELLAH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>BJ36877</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>00101211111292695000201732</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>AOURIR</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BMCE</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>389/AOURIR</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K3">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ACHENGLI LAILA</v>
-      </c>
-      <c r="B4" t="str">
-        <v>J207703</v>
-      </c>
-      <c r="C4" t="str">
-        <v>00101211115087750001201090</v>
-      </c>
-      <c r="D4" t="str">
-        <v>AIT SOUSS</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v>908/DIRECTION REGIONALE SUD</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>20000</v>
-      </c>
-      <c r="J4">
-        <v>3000</v>
-      </c>
-      <c r="K4">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ACHENGLI LAILA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>J207703</v>
-      </c>
-      <c r="C5" t="str">
-        <v>00101211115087750001201090</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AIT SOUSS</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Siège</v>
-      </c>
-      <c r="G5" t="str">
-        <v>900/PATIO</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>4500</v>
-      </c>
-      <c r="J5">
-        <v>450</v>
-      </c>
-      <c r="K5">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>AGENCE KHATABI</v>
-      </c>
-      <c r="B6" t="str">
-        <v>354646</v>
-      </c>
-      <c r="C6" t="str">
-        <v>54544646446464646464444464</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AGENCE 1</v>
-      </c>
-      <c r="E6" t="str">
-        <v>BMCI</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Supervision</v>
-      </c>
-      <c r="G6" t="str">
-        <v>001/SUP SUD</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>2400</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NACER YASSINE</v>
-      </c>
-      <c r="B7" t="str">
-        <v>L234567</v>
-      </c>
-      <c r="C7" t="str">
-        <v>78017098772736274634834384</v>
-      </c>
-      <c r="D7" t="str">
-        <v>TOUHAMI</v>
-      </c>
-      <c r="E7" t="str">
-        <v>ATTIJARI WAFA BANK</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G7" t="str">
-        <v>805/KOUTOUBIA</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>12000</v>
-      </c>
-      <c r="J7">
-        <v>1800</v>
-      </c>
-      <c r="K7">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I8">
-        <v>61900</v>
-      </c>
-      <c r="J8">
-        <v>7350</v>
-      </c>
-      <c r="K8">
-        <v>54550</v>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,252 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NACER YASSINE</v>
+        <v>NASIRI HASNAA</v>
       </c>
       <c r="B2" t="str">
-        <v>L234567</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>78017098772736274634834384</v>
+        <v>546576878798989898090090</v>
       </c>
       <c r="D2" t="str">
-        <v>TOUHAMI</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>ATTIJARI WAFA BANK</v>
+        <v>CIH</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v>389/AOURIR</v>
+        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="H2" t="str">
-        <v>trimestrielle</v>
+        <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>19999.98</v>
       </c>
       <c r="J2">
-        <v>800</v>
+        <v>1999.98</v>
       </c>
       <c r="K2">
-        <v>7200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>NASIRI HASNAA</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>546576878798989898090090</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CIH</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>8000</v>
+        <v>19999.98</v>
       </c>
       <c r="J3">
-        <v>800</v>
+        <v>999.99</v>
       </c>
       <c r="K3">
-        <v>7200</v>
+        <v>18999.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>MOHAMED BADRANE</v>
+      </c>
+      <c r="B4" t="str">
+        <v>I83603</v>
+      </c>
+      <c r="C4" t="str">
+        <v>225400000805987601012173</v>
+      </c>
+      <c r="D4" t="str">
+        <v>KHOURIBGA</v>
+      </c>
+      <c r="E4" t="str">
+        <v>CA</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G4" t="str">
+        <v>605/KHOURIBGA NAHDA</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>7500</v>
+      </c>
+      <c r="J4">
+        <v>375</v>
+      </c>
+      <c r="K4">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ZERNAKH ABDELLAH</v>
+      </c>
+      <c r="B5" t="str">
+        <v>IB19558</v>
+      </c>
+      <c r="C5" t="str">
+        <v>145101211406073828000084</v>
+      </c>
+      <c r="D5" t="str">
+        <v>MARRAKECH BENI MELLAL</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G5" t="str">
+        <v>052/FKIH BEN SALEH</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>11000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>NOUBAIL MOUNTASSIR</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Q251990</v>
+      </c>
+      <c r="C6" t="str">
+        <v>007400000313200019604463</v>
+      </c>
+      <c r="D6" t="str">
+        <v>KHOURIBGA ZELLAKA</v>
+      </c>
+      <c r="E6" t="str">
+        <v>AWB</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G6" t="str">
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>6750</v>
+      </c>
+      <c r="J6">
+        <v>675</v>
+      </c>
+      <c r="K6">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>NOUBAIL MOHAMMED</v>
+      </c>
+      <c r="B7" t="str">
+        <v>IR801997</v>
+      </c>
+      <c r="C7" t="str">
+        <v>007400000313200019604463</v>
+      </c>
+      <c r="D7" t="str">
+        <v>KHOURIBGA ZELLAKA</v>
+      </c>
+      <c r="E7" t="str">
+        <v>AWB</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G7" t="str">
+        <v>905/TADLA OUARDIGHA ZAYANE</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>6750</v>
+      </c>
+      <c r="J7">
+        <v>675</v>
+      </c>
+      <c r="K7">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I8">
+        <v>71999.96</v>
+      </c>
+      <c r="J8">
+        <v>4724.97</v>
+      </c>
+      <c r="K8">
+        <v>67274.99</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -441,118 +441,118 @@
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>19999.98</v>
+        <v>9999.99</v>
       </c>
       <c r="J2">
-        <v>1999.98</v>
+        <v>999.99</v>
       </c>
       <c r="K2">
-        <v>18000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NASIRI HASNAA</v>
+        <v>ZERNAKH ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>IB19558</v>
       </c>
       <c r="C3" t="str">
-        <v>546576878798989898090090</v>
+        <v>145101211406073828000084</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>MARRAKECH BENI MELLAL</v>
       </c>
       <c r="E3" t="str">
-        <v>CIH</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Logement de fonction</v>
+        <v>Point de vente</v>
       </c>
       <c r="G3" t="str">
-        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
+        <v>052/FKIH BEN SALEH/AV1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>19999.98</v>
+        <v>3000</v>
       </c>
       <c r="J3">
-        <v>999.99</v>
+        <v>450</v>
       </c>
       <c r="K3">
-        <v>18999.99</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>MOHAMED BADRANE</v>
+        <v>ZERNAKH ABDELLAH</v>
       </c>
       <c r="B4" t="str">
-        <v>I83603</v>
+        <v>IB19558</v>
       </c>
       <c r="C4" t="str">
-        <v>225400000805987601012173</v>
+        <v>145101211406073828000084</v>
       </c>
       <c r="D4" t="str">
-        <v>KHOURIBGA</v>
+        <v>MARRAKECH BENI MELLAL</v>
       </c>
       <c r="E4" t="str">
-        <v>CA</v>
+        <v>BP</v>
       </c>
       <c r="F4" t="str">
         <v>Point de vente</v>
       </c>
       <c r="G4" t="str">
-        <v>605/KHOURIBGA NAHDA</v>
+        <v>052/FKIH BEN SALEH/AV1</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="J4">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7125</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ZERNAKH ABDELLAH</v>
+        <v>MOHAMED BADRANE</v>
       </c>
       <c r="B5" t="str">
-        <v>IB19558</v>
+        <v>I83603</v>
       </c>
       <c r="C5" t="str">
-        <v>145101211406073828000084</v>
+        <v>225400000805987601012173</v>
       </c>
       <c r="D5" t="str">
-        <v>MARRAKECH BENI MELLAL</v>
+        <v>KHOURIBGA</v>
       </c>
       <c r="E5" t="str">
-        <v>BP</v>
+        <v>CA</v>
       </c>
       <c r="F5" t="str">
         <v>Point de vente</v>
       </c>
       <c r="G5" t="str">
-        <v>052/FKIH BEN SALEH</v>
+        <v>605/KHOURIBGA NAHDA</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K5">
-        <v>11000</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="6">
@@ -651,13 +651,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I8">
-        <v>71999.96</v>
+        <v>45999.99</v>
       </c>
       <c r="J8">
-        <v>4724.97</v>
+        <v>3174.99</v>
       </c>
       <c r="K8">
-        <v>67274.99</v>
+        <v>42825</v>
       </c>
     </row>
   </sheetData>

--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,237 +432,62 @@
         <v>CIH</v>
       </c>
       <c r="F2" t="str">
-        <v>Logement de fonction</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>905/LF/TADLA OUARDIGHA ZAYANE</v>
+        <v>901/CASABLANCA/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>9999.99</v>
+        <v>8500.01</v>
       </c>
       <c r="J2">
-        <v>999.99</v>
+        <v>850.01</v>
       </c>
       <c r="K2">
-        <v>9000</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ZERNAKH ABDELLAH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>IB19558</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>145101211406073828000084</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>MARRAKECH BENI MELLAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>052/FKIH BEN SALEH/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>3000</v>
+        <v>8500.01</v>
       </c>
       <c r="J3">
-        <v>450</v>
+        <v>850.01</v>
       </c>
       <c r="K3">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ZERNAKH ABDELLAH</v>
-      </c>
-      <c r="B4" t="str">
-        <v>IB19558</v>
-      </c>
-      <c r="C4" t="str">
-        <v>145101211406073828000084</v>
-      </c>
-      <c r="D4" t="str">
-        <v>MARRAKECH BENI MELLAL</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G4" t="str">
-        <v>052/FKIH BEN SALEH/AV1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>12000</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>MOHAMED BADRANE</v>
-      </c>
-      <c r="B5" t="str">
-        <v>I83603</v>
-      </c>
-      <c r="C5" t="str">
-        <v>225400000805987601012173</v>
-      </c>
-      <c r="D5" t="str">
-        <v>KHOURIBGA</v>
-      </c>
-      <c r="E5" t="str">
-        <v>CA</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>605/KHOURIBGA NAHDA</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>7500</v>
-      </c>
-      <c r="J5">
-        <v>375</v>
-      </c>
-      <c r="K5">
-        <v>7125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>NOUBAIL MOUNTASSIR</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Q251990</v>
-      </c>
-      <c r="C6" t="str">
-        <v>007400000313200019604463</v>
-      </c>
-      <c r="D6" t="str">
-        <v>KHOURIBGA ZELLAKA</v>
-      </c>
-      <c r="E6" t="str">
-        <v>AWB</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G6" t="str">
-        <v>905/TADLA OUARDIGHA ZAYANE</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>6750</v>
-      </c>
-      <c r="J6">
-        <v>675</v>
-      </c>
-      <c r="K6">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NOUBAIL MOHAMMED</v>
-      </c>
-      <c r="B7" t="str">
-        <v>IR801997</v>
-      </c>
-      <c r="C7" t="str">
-        <v>007400000313200019604463</v>
-      </c>
-      <c r="D7" t="str">
-        <v>KHOURIBGA ZELLAKA</v>
-      </c>
-      <c r="E7" t="str">
-        <v>AWB</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v>905/TADLA OUARDIGHA ZAYANE</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>6750</v>
-      </c>
-      <c r="J7">
-        <v>675</v>
-      </c>
-      <c r="K7">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I8">
-        <v>45999.99</v>
-      </c>
-      <c r="J8">
-        <v>3174.99</v>
-      </c>
-      <c r="K8">
-        <v>42825</v>
+        <v>7650</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,147 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NASIRI HASNAA</v>
+        <v>ZERNAKH ABDELLAH</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>IB19558</v>
       </c>
       <c r="C2" t="str">
-        <v>546576878798989898090090</v>
+        <v>145101211406073828000084</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>MARRAKECH BENI MELLAL</v>
       </c>
       <c r="E2" t="str">
-        <v>CIH</v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>901/CASABLANCA/AV1</v>
+        <v>009/TTT/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>8500.01</v>
+        <v>4500</v>
       </c>
       <c r="J2">
-        <v>850.01</v>
+        <v>350</v>
       </c>
       <c r="K2">
-        <v>7650</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>ZERNAKH ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>IB19558</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>145101211406073828000084</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>MARRAKECH BENI MELLAL</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>009/TTT/AV1</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
+        <v>3500</v>
+      </c>
+      <c r="J3">
+        <v>350</v>
+      </c>
+      <c r="K3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>NASIRI HASNAA</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v>546576878798989898090090</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>CIH</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v>901/CASABLANCA/AV1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
         <v>8500.01</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>850.01</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>7650</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I5">
+        <v>16500.01</v>
+      </c>
+      <c r="J5">
+        <v>1550.01</v>
+      </c>
+      <c r="K5">
+        <v>14950</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,147 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ZERNAKH ABDELLAH</v>
+        <v>NOUBAIL MOHAMMED</v>
       </c>
       <c r="B2" t="str">
-        <v>IB19558</v>
+        <v>IR801997</v>
       </c>
       <c r="C2" t="str">
-        <v>145101211406073828000084</v>
+        <v>007400000313200019604463</v>
       </c>
       <c r="D2" t="str">
-        <v>MARRAKECH BENI MELLAL</v>
+        <v>KHOURIBGA ZELLAKA</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>AWB</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>009/TTT/AV1</v>
+        <v>002/TTT</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4150</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ZERNAKH ABDELLAH</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>IB19558</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>145101211406073828000084</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>MARRAKECH BENI MELLAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>009/TTT/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>NASIRI HASNAA</v>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v>546576878798989898090090</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>CIH</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v>901/CASABLANCA/AV1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>8500.01</v>
-      </c>
-      <c r="J4">
-        <v>850.01</v>
-      </c>
-      <c r="K4">
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H5" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I5">
-        <v>16500.01</v>
-      </c>
-      <c r="J5">
-        <v>1550.01</v>
-      </c>
-      <c r="K5">
-        <v>14950</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_11_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,63 +417,63 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NOUBAIL MOHAMMED</v>
+        <v>JEMAA HORMI</v>
       </c>
       <c r="B2" t="str">
-        <v>IR801997</v>
+        <v>B219321</v>
       </c>
       <c r="C2" t="str">
-        <v>007400000313200019604463</v>
+        <v>225400000805987601012173</v>
       </c>
       <c r="D2" t="str">
-        <v>KHOURIBGA ZELLAKA</v>
+        <v>KHOURIBGA</v>
       </c>
       <c r="E2" t="str">
-        <v>AWB</v>
+        <v>CA</v>
       </c>
       <c r="F2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>002/TTT</v>
+        <v>001/RRR</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>JEMAA HORMI</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>B219321</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>225400000805987601012173</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>KHOURIBGA</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CA</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>001/RRR</v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -483,11 +483,46 @@
       </c>
       <c r="K3">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I4">
+        <v>14000</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>